--- a/Excel文件/关卡随机怪物数量.xlsx
+++ b/Excel文件/关卡随机怪物数量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\xiakeqian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\新建文件夹 (2)\Excel文件11\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB51637-E27F-427B-A382-2FCAFD529FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DEC56D-9CB4-4B7B-91C9-C8E76DE86F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
